--- a/Stage 2/Agile Gantt chart1.xlsx
+++ b/Stage 2/Agile Gantt chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3A604F-38E8-4ABD-9748-0A25A1ABAF16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>Task 3</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t>Handin</t>
+  </si>
+  <si>
+    <t>User login, save search results, Using Access??</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Search the shortest routes with the inputs from the user</t>
+  </si>
+  <si>
+    <t>Putting all the codes together and display the output</t>
+  </si>
+  <si>
+    <t>Unspecified additional features</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1023,505 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1261,181 +1774,122 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
         <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
+          <color rgb="FFC00000"/>
         </left>
         <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
+          <color rgb="FFC00000"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
         <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
+          <color rgb="FFC00000"/>
         </left>
         <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
+          <color rgb="FFC00000"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
         <left style="thin">
-          <color theme="4"/>
+          <color rgb="FFC00000"/>
         </left>
         <right style="thin">
-          <color theme="4"/>
+          <color rgb="FFC00000"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1827,21 +2281,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
-      <tableStyleElement type="totalRow" dxfId="46"/>
-      <tableStyleElement type="firstColumn" dxfId="45"/>
-      <tableStyleElement type="lastColumn" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="79"/>
+      <tableStyleElement type="headerRow" dxfId="78"/>
+      <tableStyleElement type="totalRow" dxfId="77"/>
+      <tableStyleElement type="firstColumn" dxfId="76"/>
+      <tableStyleElement type="lastColumn" dxfId="75"/>
+      <tableStyleElement type="firstRowStripe" dxfId="74"/>
+      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="72"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2080,7 +2534,7 @@
                   <a14:compatExt spid="_x0000_s17409"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001440000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001440000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2111,7 +2565,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2121,12 +2575,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="33" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="32" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="64" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="63" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2138,7 +2592,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2148,9 +2602,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="59"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2600,10 +3054,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3869,7 +4323,9 @@
       <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
       <c r="F12" s="25">
         <v>44774</v>
       </c>
@@ -4112,7 +4568,9 @@
       <c r="D13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
       <c r="F13" s="25">
         <v>44774</v>
       </c>
@@ -4355,7 +4813,9 @@
       <c r="D14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
       <c r="F14" s="25">
         <v>44774</v>
       </c>
@@ -4601,227 +5061,227 @@
       <c r="G15" s="26"/>
       <c r="H15" s="55"/>
       <c r="I15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="I15:R25" ca="1" si="9">IF(AND($C15="Goal",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="S15:AB25" ca="1" si="10">IF(AND($C15="Goal",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="T15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="AC15:AL25" ca="1" si="11">IF(AND($C15="Goal",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AD15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="AM15:AV25" ca="1" si="12">IF(AND($C15="Goal",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AN15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="AW15:BF25" ca="1" si="13">IF(AND($C15="Goal",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AX15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="BG15:BL25" ca="1" si="14">IF(AND($C15="Goal",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BH15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL15" s="20" t="str">
-        <f ca="1">IF(AND($C15="Goal",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM15" s="19"/>
@@ -4835,7 +5295,9 @@
       <c r="D16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="25">
         <v>44779</v>
       </c>
@@ -4844,227 +5306,227 @@
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL16" s="20" t="str">
-        <f ca="1">IF(AND($C16="Goal",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM16" s="19"/>
@@ -5078,7 +5540,9 @@
       <c r="D17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="24">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="25">
         <v>44779</v>
       </c>
@@ -5087,227 +5551,227 @@
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL17" s="20" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM17" s="19"/>
@@ -5321,7 +5785,9 @@
       <c r="D18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24">
+        <v>0.5</v>
+      </c>
       <c r="F18" s="25">
         <v>44779</v>
       </c>
@@ -5330,227 +5796,227 @@
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$7&gt;=$F18,AA$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$7&gt;=$F18,AB$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$7&gt;=$F18,AC$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$7&gt;=$F18,AD$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$7&gt;=$F18,AE$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL18" s="20" t="str">
-        <f ca="1">IF(AND($C18="Goal",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM18" s="19"/>
@@ -5574,227 +6040,227 @@
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q19" s="20">
-        <f ca="1">IF(AND($C19="Goal",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="R19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL19" s="20" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM19" s="19"/>
@@ -5811,227 +6277,227 @@
       <c r="G20" s="26"/>
       <c r="H20" s="55"/>
       <c r="I20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$7&gt;=$F20,Z$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$7&gt;=$F20,AI$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$7&gt;=$F20,AI$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$7&gt;=$F20,AJ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$7&gt;=$F20,AJ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$7&gt;=$F20,AK$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$7&gt;=$F20,AK$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$7&gt;=$F20,AL$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$7&gt;=$F20,AL$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$7&gt;=$F20,AM$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL20" s="20" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM20" s="19"/>
@@ -6043,7 +6509,9 @@
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
       <c r="F21" s="25">
         <f>F12+12</f>
         <v>44786</v>
@@ -6053,227 +6521,227 @@
       </c>
       <c r="H21" s="55"/>
       <c r="I21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL21" s="20" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM21" s="19"/>
@@ -6285,7 +6753,9 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
       <c r="F22" s="25">
         <f>F13+12</f>
         <v>44786</v>
@@ -6295,227 +6765,227 @@
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AM$7&gt;=$F22,AM$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AN$7&gt;=$F22,AN$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$7&gt;=$F22,AO$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AP$7&gt;=$F22,AP$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL22" s="20" t="str">
-        <f ca="1">IF(AND($C22="Goal",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM22" s="19"/>
@@ -6527,7 +6997,9 @@
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
       <c r="F23" s="25">
         <f>F14+12</f>
         <v>44786</v>
@@ -6537,227 +7009,227 @@
       </c>
       <c r="H23" s="55"/>
       <c r="I23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Z23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AA23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AB23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AC23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL23" s="20" t="str">
-        <f ca="1">IF(AND($C23="Goal",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM23" s="19"/>
@@ -6765,7 +7237,7 @@
     <row r="24" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>8</v>
@@ -6773,7 +7245,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25">
-        <v>44795</v>
+        <v>44790</v>
       </c>
       <c r="G24" s="26">
         <v>1</v>
@@ -6839,9 +7311,9 @@
         <f ca="1">IF(AND($C24="Goal",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
-      <c r="X24" s="20" t="str">
+      <c r="X24" s="20">
         <f ca="1">IF(AND($C24="Goal",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y24" s="20" t="str">
         <f ca="1">IF(AND($C24="Goal",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
@@ -6859,9 +7331,9 @@
         <f ca="1">IF(AND($C24="Goal",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
-      <c r="AC24" s="20">
+      <c r="AC24" s="20" t="str">
         <f ca="1">IF(AND($C24="Goal",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AD24" s="20" t="str">
         <f ca="1">IF(AND($C24="Goal",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
@@ -7008,7 +7480,7 @@
     <row r="25" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>8</v>
@@ -7016,234 +7488,234 @@
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
       <c r="F25" s="25">
-        <v>44790</v>
+        <v>44795</v>
       </c>
       <c r="G25" s="26">
         <v>1</v>
       </c>
       <c r="H25" s="55"/>
       <c r="I25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X25" s="20">
-        <f ca="1">IF(AND($C25="Goal",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X25" s="20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y25" s="20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z25" s="20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA25" s="20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB25" s="20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AC25" s="20">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
       <c r="AD25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL25" s="20" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM25" s="19"/>
@@ -7260,227 +7732,227 @@
       <c r="G26" s="26"/>
       <c r="H26" s="55"/>
       <c r="I26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="I26:R39" ca="1" si="15">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="S26:AB39" ca="1" si="16">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AC26:AL39" ca="1" si="17">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AD26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AM26:AV39" ca="1" si="18">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AO26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AW26:BF39" ca="1" si="19">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="BG26:BL39" ca="1" si="20">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL26" s="20" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM26" s="19"/>
@@ -7494,7 +7966,9 @@
         <v>7</v>
       </c>
       <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
       <c r="F27" s="25">
         <v>44793</v>
       </c>
@@ -7503,227 +7977,227 @@
       </c>
       <c r="H27" s="55"/>
       <c r="I27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AB27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AC27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AD27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AE27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AF27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AG27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AH27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AI27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AJ27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AK27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AL27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AM27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AN27" s="20">
-        <f ca="1">IF(AND($C27="Goal",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AO27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL27" s="20" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM27" s="19"/>
@@ -7737,7 +8211,9 @@
         <v>7</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
       <c r="F28" s="25">
         <v>44793</v>
       </c>
@@ -7746,227 +8222,227 @@
       </c>
       <c r="H28" s="55"/>
       <c r="I28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AB28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AC28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AD28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AE28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AF28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AG28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AH28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AI28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AJ28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AK28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AL28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AM28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AN28" s="20">
-        <f ca="1">IF(AND($C28="Goal",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AO28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL28" s="20" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM28" s="19"/>
@@ -7980,7 +8456,9 @@
         <v>7</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
       <c r="F29" s="25">
         <v>44793</v>
       </c>
@@ -7989,227 +8467,227 @@
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AB29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="AC29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AD29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AE29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AF29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AG29" s="20">
-        <f ca="1">IF(AND($C29="Goal",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="AH29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AN29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AO29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL29" s="20" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM29" s="19"/>
@@ -8232,227 +8710,227 @@
       </c>
       <c r="H30" s="55"/>
       <c r="I30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE30" s="20">
-        <f ca="1">IF(AND($C30="Goal",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="AF30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AN30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AO30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL30" s="20" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM30" s="19"/>
@@ -8475,548 +8953,2435 @@
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL31" s="20">
-        <f ca="1">IF(AND($C31="Goal",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="AM31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AN31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AO31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL31" s="20" t="str">
-        <f ca="1">IF(AND($C31="Goal",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BM31" s="19"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="24">
+        <v>0</v>
+      </c>
       <c r="F32" s="25">
-        <v>44827</v>
+        <v>44800</v>
       </c>
       <c r="G32" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="T32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="U32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="V32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="W32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="X32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Y32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AH32" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AI32" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AK32" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AL32" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AM32" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AN32" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
       </c>
       <c r="AO32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AP32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI32" s="20">
-        <f ca="1">IF(AND($C32="Goal",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),1,""))</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI32" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
       </c>
       <c r="BJ32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL32" s="20" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM32" s="58"/>
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM32" s="19"/>
     </row>
     <row r="33" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>44811</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1</v>
+      </c>
       <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="49"/>
+      <c r="I33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS33" s="20">
+        <f ca="1">IF(AND($C33="Goal",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="AT33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BJ33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL33" s="20" t="str">
+        <f ca="1">IF(AND($C33="Goal",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM33" s="19"/>
     </row>
-    <row r="34" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="3"/>
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <v>44807</v>
+      </c>
+      <c r="G34" s="26">
+        <v>7</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="L34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="M34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="O34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="Q34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="R34" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="S34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="T34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="U34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="V34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="W34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="X34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Y34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB34" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AD34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AE34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AF34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AG34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AH34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AI34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AK34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL34" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AM34" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AN34" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AO34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AP34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AR34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AS34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AT34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AU34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AV34" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AW34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AX34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AY34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AZ34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BA34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BB34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BC34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BD34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BE34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BF34" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BG34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BH34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BJ34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL34" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM34" s="19"/>
     </row>
-    <row r="35" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="5"/>
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>44818</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="55"/>
+      <c r="I35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AT35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ35" s="20">
+        <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="BA35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BJ35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL35" s="20" t="str">
+        <f ca="1">IF(AND($C35="Goal",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM35" s="19"/>
+    </row>
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>44814</v>
+      </c>
+      <c r="G36" s="26">
+        <v>7</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="L36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="M36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="O36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="Q36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="R36" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="S36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="T36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="U36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="V36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="W36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="X36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Y36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB36" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AD36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AE36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AF36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AG36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AH36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AI36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AK36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL36" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AM36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AN36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AO36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AP36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AR36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AS36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AT36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AU36" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AV36" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AW36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AX36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AY36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BA36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BB36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BC36" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BD36" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BE36" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BF36" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BG36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BH36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BJ36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL36" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM36" s="19"/>
+    </row>
+    <row r="37" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>44825</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AT37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG37" s="20">
+        <f ca="1">IF(AND($C37="Goal",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="BH37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BJ37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL37" s="20" t="str">
+        <f ca="1">IF(AND($C37="Goal",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM37" s="19"/>
+    </row>
+    <row r="38" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>44807</v>
+      </c>
+      <c r="G38" s="26">
+        <v>14</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="L38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="M38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="O38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="Q38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="R38" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="S38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="T38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="U38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="V38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="W38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="X38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Y38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB38" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AD38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AE38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AF38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AG38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AH38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AI38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AK38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL38" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AM38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AN38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AO38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AP38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AR38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AS38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AT38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AU38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AV38" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AW38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AX38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AY38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AZ38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BA38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BB38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BC38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BD38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BE38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BF38" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BG38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BH38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BJ38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL38" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM38" s="19"/>
+    </row>
+    <row r="39" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>44821</v>
+      </c>
+      <c r="G39" s="26">
+        <v>7</v>
+      </c>
+      <c r="H39" s="55"/>
+      <c r="I39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="L39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="M39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="N39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="O39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="Q39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="R39" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="S39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="T39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="U39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="V39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="W39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="X39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Y39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB39" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AD39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AE39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AF39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AG39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AH39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AI39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AK39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL39" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AM39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AN39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AO39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AP39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AR39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AS39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AT39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AU39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AV39" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AW39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AX39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AY39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AZ39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BA39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BB39" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="BC39" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BD39" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BE39" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BF39" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BG39" s="20">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="BH39" s="20">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="BI39" s="20">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="BJ39" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK39" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL39" s="20" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM39" s="19"/>
+    </row>
+    <row r="40" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24">
+        <v>0</v>
+      </c>
+      <c r="F40" s="25">
+        <v>44827</v>
+      </c>
+      <c r="G40" s="26">
+        <v>1</v>
+      </c>
+      <c r="H40" s="55"/>
+      <c r="I40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",J$7&gt;=$F40,J$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$7&gt;=$F40,J$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",K$7&gt;=$F40,K$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",K$7&gt;=$F40,K$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",L$7&gt;=$F40,L$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",L$7&gt;=$F40,L$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",M$7&gt;=$F40,M$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",M$7&gt;=$F40,M$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",N$7&gt;=$F40,N$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",N$7&gt;=$F40,N$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",O$7&gt;=$F40,O$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",O$7&gt;=$F40,O$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",P$7&gt;=$F40,P$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",P$7&gt;=$F40,P$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",Q$7&gt;=$F40,Q$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Q$7&gt;=$F40,Q$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",R$7&gt;=$F40,R$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",R$7&gt;=$F40,R$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",T$7&gt;=$F40,T$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",T$7&gt;=$F40,T$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",U$7&gt;=$F40,U$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",U$7&gt;=$F40,U$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",V$7&gt;=$F40,V$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",V$7&gt;=$F40,V$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",W$7&gt;=$F40,W$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",W$7&gt;=$F40,W$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",X$7&gt;=$F40,X$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",X$7&gt;=$F40,X$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",Y$7&gt;=$F40,Y$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Y$7&gt;=$F40,Y$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",Z$7&gt;=$F40,Z$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Z$7&gt;=$F40,Z$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AA$7&gt;=$F40,AA$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AA$7&gt;=$F40,AA$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AB$7&gt;=$F40,AB$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AB$7&gt;=$F40,AB$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AD$7&gt;=$F40,AD$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AD$7&gt;=$F40,AD$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AE$7&gt;=$F40,AE$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AE$7&gt;=$F40,AE$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AF$7&gt;=$F40,AF$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AF$7&gt;=$F40,AF$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AG$7&gt;=$F40,AG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AG$7&gt;=$F40,AG$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AH$7&gt;=$F40,AH$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AH$7&gt;=$F40,AH$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AI$7&gt;=$F40,AI$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AI$7&gt;=$F40,AI$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AJ$7&gt;=$F40,AJ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AJ$7&gt;=$F40,AJ$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AK$7&gt;=$F40,AK$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AK$7&gt;=$F40,AK$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AL$7&gt;=$F40,AL$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AL$7&gt;=$F40,AL$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AN$7&gt;=$F40,AN$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AN$7&gt;=$F40,AN$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AO$7&gt;=$F40,AO$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AO$7&gt;=$F40,AO$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AP$7&gt;=$F40,AP$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$7&gt;=$F40,AP$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AQ$7&gt;=$F40,AQ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AQ$7&gt;=$F40,AQ$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AR$7&gt;=$F40,AR$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AR$7&gt;=$F40,AR$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AS$7&gt;=$F40,AS$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AS$7&gt;=$F40,AS$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AT40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AT$7&gt;=$F40,AT$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AT$7&gt;=$F40,AT$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AU$7&gt;=$F40,AU$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AU$7&gt;=$F40,AU$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AV$7&gt;=$F40,AV$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AV$7&gt;=$F40,AV$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AX$7&gt;=$F40,AX$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AX$7&gt;=$F40,AX$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AY$7&gt;=$F40,AY$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AY$7&gt;=$F40,AY$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",AZ$7&gt;=$F40,AZ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AZ$7&gt;=$F40,AZ$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BA$7&gt;=$F40,BA$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BA$7&gt;=$F40,BA$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI40" s="20">
+        <f ca="1">IF(AND($C40="Goal",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="BJ40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BJ$7&gt;=$F40,BJ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BJ$7&gt;=$F40,BJ$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BK$7&gt;=$F40,BK$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BK$7&gt;=$F40,BK$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL40" s="20" t="str">
+        <f ca="1">IF(AND($C40="Goal",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM40" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9029,8 +11394,8 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E33">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E9:E40">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9043,65 +11408,169 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="27" priority="1">
+  <conditionalFormatting sqref="I40:BL40 I7:BL31">
+    <cfRule type="expression" dxfId="58" priority="100">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="57" priority="103">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="56" priority="102">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="55" priority="101">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL32">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL34 I37:BL40">
+    <cfRule type="expression" dxfId="19" priority="106" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="107" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="108" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="109" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="110" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
-      <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
-      <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
-      <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="54" priority="93">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <conditionalFormatting sqref="E37">
+    <cfRule type="dataBar" priority="80">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42261D4D-CEDB-443A-A026-82A8CA35E60F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BL24">
+    <cfRule type="expression" dxfId="49" priority="37">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="48" priority="30">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{12D3B618-59DD-4FD7-8708-51966D5A1F35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND($C36="Low Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND($C36="High Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+      <formula>AND($C36="On Track",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+      <formula>AND($C36="Med Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+      <formula>AND(LEN($C36)=0,I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>AND($C35="Low Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND($C35="High Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND($C35="On Track",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>AND($C35="Med Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>AND(LEN($C35)=0,I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A30031FB-9B4D-41A7-B5DF-119AD502E423}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{662A47A0-7258-440E-8D71-BC54CBC9C651}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C32" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C40" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{218D9212-09C8-4DA2-9014-64503951B170}">
@@ -9115,8 +11584,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{737D7247-B514-41B2-94CC-2F538E17DE66}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{6AB925DC-9BC9-4EC3-A848-25121289EECD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11" xr:uid="{77315CCB-C571-42B0-8983-9C17BB04F75F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. _x000a_To add more items, insert new rows above this one._x000a_" sqref="A33" xr:uid="{659FD5CB-B62B-4854-B8A9-29F1F70930AC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A32" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A40" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -9173,10 +11641,154 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E33</xm:sqref>
+          <xm:sqref>E9:E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
+          <x14:cfRule type="iconSet" priority="146" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I40:BL40 I10:BL23 I25:BL31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="99" id="{F520BFA1-FC9E-4A07-AF6E-D208AE833EB8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I32:BL32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42261D4D-CEDB-443A-A026-82A8CA35E60F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{820B17D2-C883-47F9-8C39-F9859A8F580E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I38:BL38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="43" id="{E46128EF-8A4E-4369-B11D-89DE223F5947}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I24:BL24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="31" id="{B826F587-02EE-4948-8D85-70F77FB25FC8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I39:BL39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{C3C69DE9-98FB-45B1-AD8A-F787F274AE52}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I34:BL34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{12D3B618-59DD-4FD7-8708-51966D5A1F35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{12DCBDC5-8D4F-4EC9-99DA-2FEFE64366A3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9195,7 +11807,7 @@
           <xm:sqref>I33:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+          <x14:cfRule type="iconSet" priority="17" id="{611D5CDA-4FD9-4B36-81B1-909270F18D15}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9211,7 +11823,60 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I10:BL32</xm:sqref>
+          <xm:sqref>I37:BL37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{3E68F311-DFAD-42AC-83C9-22F018140AA3}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I36:BL36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A30031FB-9B4D-41A7-B5DF-119AD502E423}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{54F9C8CD-35A9-4437-8BB4-6BDC82CD5FF8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I35:BL35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16406,56 +19071,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16582,6 +19247,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16857,35 +19550,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16904,24 +19589,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Stage 2/Agile Gantt chart1.xlsx
+++ b/Stage 2/Agile Gantt chart1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3A604F-38E8-4ABD-9748-0A25A1ABAF16}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F99F7F-B850-4A37-802F-3C74527988CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="71">
   <si>
     <t>Task 3</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>High risk</t>
-  </si>
-  <si>
-    <t>TITLE 1</t>
   </si>
   <si>
     <t>TITLE 2</t>
@@ -246,9 +243,6 @@
     <t>Stage 4</t>
   </si>
   <si>
-    <t>Read and write data from PDF to a notepad</t>
-  </si>
-  <si>
     <t>Read and write data from notepad to Access</t>
   </si>
   <si>
@@ -273,7 +267,19 @@
     <t>Putting all the codes together and display the output</t>
   </si>
   <si>
-    <t>Unspecified additional features</t>
+    <t>Read and write and organize data from PDF to a notepad</t>
+  </si>
+  <si>
+    <t>Find the earliest possible arrival time</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Autocomplete functionality for typing in the train station</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1008,6 +1014,9 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1023,505 +1032,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -1890,6 +1401,143 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2281,21 +1929,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="83"/>
-      <tableStyleElement type="headerRow" dxfId="82"/>
-      <tableStyleElement type="firstRowStripe" dxfId="81"/>
-      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="79"/>
-      <tableStyleElement type="headerRow" dxfId="78"/>
-      <tableStyleElement type="totalRow" dxfId="77"/>
-      <tableStyleElement type="firstColumn" dxfId="76"/>
-      <tableStyleElement type="lastColumn" dxfId="75"/>
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="72"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="totalRow" dxfId="52"/>
+      <tableStyleElement type="firstColumn" dxfId="51"/>
+      <tableStyleElement type="lastColumn" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2506,6 +2154,348 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Elbow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="11887200"/>
+          <a:ext cx="1362075" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>257178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13134978" y="12792078"/>
+          <a:ext cx="1876422" cy="847722"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 761"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13658850" y="12782550"/>
+          <a:ext cx="847725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>361949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="12887324"/>
+          <a:ext cx="2628900" cy="2438404"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 725"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15230475" y="14506574"/>
+          <a:ext cx="2828925" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 505"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240250" y="15325725"/>
+          <a:ext cx="638175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2565,7 +2555,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2575,12 +2565,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="64" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="63" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="39" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="38" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2592,7 +2582,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2602,9 +2592,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2902,7 +2892,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="80"/>
       <c r="C2" s="87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
@@ -2934,7 +2924,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="75"/>
       <c r="C4" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
@@ -2951,7 +2941,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="75"/>
       <c r="C5" s="88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
@@ -3054,10 +3044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3070,7 +3060,9 @@
     <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="12" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.5546875" style="12" customWidth="1"/>
+    <col min="9" max="49" width="3.5546875" style="12" customWidth="1"/>
+    <col min="50" max="50" width="3.6640625" style="12" customWidth="1"/>
+    <col min="51" max="64" width="3.5546875" style="12" customWidth="1"/>
     <col min="65" max="65" width="2.6640625" style="12" customWidth="1"/>
     <col min="66" max="16384" width="8.88671875" style="12"/>
   </cols>
@@ -3079,7 +3071,7 @@
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -3215,7 +3207,7 @@
     <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35"/>
@@ -4079,7 +4071,7 @@
     <row r="11" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="83" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -4317,11 +4309,11 @@
     <row r="12" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="24">
         <v>1</v>
@@ -4562,11 +4554,11 @@
     <row r="13" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -4807,11 +4799,11 @@
     <row r="14" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -5052,7 +5044,7 @@
     <row r="15" spans="1:68" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -5289,11 +5281,11 @@
     <row r="16" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="24">
         <v>0.5</v>
@@ -5534,11 +5526,11 @@
     <row r="17" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="24">
         <v>0.5</v>
@@ -5779,11 +5771,11 @@
     <row r="18" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="24">
         <v>0.5</v>
@@ -6024,7 +6016,7 @@
     <row r="19" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>8</v>
@@ -6268,7 +6260,7 @@
     <row r="20" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -6505,7 +6497,7 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -6749,7 +6741,7 @@
     <row r="22" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -6993,7 +6985,7 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -7237,7 +7229,7 @@
     <row r="24" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>8</v>
@@ -7252,227 +7244,227 @@
       </c>
       <c r="H24" s="55"/>
       <c r="I24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="I24:AN24" ca="1" si="15">IF(AND($C24="Goal",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="T24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X24" s="20">
-        <f ca="1">IF(AND($C24="Goal",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="Y24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL24" s="20" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM24" s="19"/>
@@ -7480,7 +7472,7 @@
     <row r="25" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>8</v>
@@ -7723,7 +7715,7 @@
     <row r="26" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -7732,227 +7724,227 @@
       <c r="G26" s="26"/>
       <c r="H26" s="55"/>
       <c r="I26" s="20" t="str">
-        <f t="shared" ref="I26:R39" ca="1" si="15">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="I26:R34" ca="1" si="16">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R26" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S26" s="20" t="str">
-        <f t="shared" ref="S26:AB39" ca="1" si="16">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="S26:AB34" ca="1" si="17">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB26" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC26" s="20" t="str">
-        <f t="shared" ref="AC26:AL39" ca="1" si="17">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AC26:AL34" ca="1" si="18">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AD26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL26" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AM26" s="20" t="str">
-        <f t="shared" ref="AM26:AV39" ca="1" si="18">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AM26:AV34" ca="1" si="19">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV26" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW26" s="20" t="str">
-        <f t="shared" ref="AW26:BF39" ca="1" si="19">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AW26:BF34" ca="1" si="20">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF26" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG26" s="20" t="str">
-        <f t="shared" ref="BG26:BL39" ca="1" si="20">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="BG26:BL34" ca="1" si="21">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI26" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ26" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK26" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL26" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM26" s="19"/>
@@ -7960,244 +7952,244 @@
     <row r="27" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="27" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="25">
-        <v>44793</v>
+        <v>44779</v>
       </c>
       <c r="G27" s="26">
         <v>14</v>
       </c>
       <c r="H27" s="55"/>
       <c r="I27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="M27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="N27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="O27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="P27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="Q27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="R27" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="S27" s="20" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="T27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="U27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="V27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="W27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="X27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Y27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z27" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA27" s="20">
+      <c r="M27" s="20">
         <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
-      <c r="AB27" s="20">
+      <c r="N27" s="20">
         <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
-      <c r="AC27" s="20">
+      <c r="O27" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="S27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AD27" s="20">
+      <c r="T27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AE27" s="20">
+      <c r="U27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AF27" s="20">
+      <c r="V27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AG27" s="20">
+      <c r="W27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AH27" s="20">
+      <c r="X27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AI27" s="20">
+      <c r="Y27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AJ27" s="20">
+      <c r="Z27" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AK27" s="20">
+      <c r="AA27" s="20" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AL27" s="20">
+        <v/>
+      </c>
+      <c r="AB27" s="20" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AM27" s="20">
+        <v/>
+      </c>
+      <c r="AC27" s="20" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AN27" s="20">
+        <v/>
+      </c>
+      <c r="AD27" s="20" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="AE27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AF27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AG27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AH27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AI27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AK27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AL27" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AM27" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AN27" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
       </c>
       <c r="AO27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV27" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF27" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL27" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM27" s="19"/>
@@ -8205,7 +8197,7 @@
     <row r="28" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>7</v>
@@ -8218,231 +8210,231 @@
         <v>44793</v>
       </c>
       <c r="G28" s="26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H28" s="55"/>
       <c r="I28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R28" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z28" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AB28" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AC28" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AD28" s="20">
+      <c r="AB28" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AE28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AF28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AG28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AH28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AI28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AK28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AL28" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AM28" s="20">
+      <c r="AC28" s="20">
         <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
-      <c r="AN28" s="20">
+      <c r="AD28" s="20">
         <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
+      <c r="AE28" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AF28" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AH28" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AI28" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ28" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AK28" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AL28" s="20" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AM28" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AN28" s="20" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
       <c r="AO28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV28" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF28" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL28" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM28" s="19"/>
@@ -8450,7 +8442,7 @@
     <row r="29" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>7</v>
@@ -8467,227 +8459,227 @@
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R29" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z29" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AB29" s="20">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AC29" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AB29" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
+      <c r="AC29" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AD29" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
       <c r="AE29" s="20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AF29" s="20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AG29" s="20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="AH29" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI29" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ29" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK29" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL29" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AM29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV29" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF29" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL29" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM29" s="19"/>
@@ -8695,7 +8687,7 @@
     <row r="30" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>8</v>
@@ -8710,227 +8702,227 @@
       </c>
       <c r="H30" s="55"/>
       <c r="I30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R30" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB30" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE30" s="20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="AF30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL30" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AM30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV30" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF30" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL30" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM30" s="19"/>
@@ -8938,7 +8930,7 @@
     <row r="31" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>8</v>
@@ -8953,227 +8945,227 @@
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R31" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB31" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK31" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL31" s="20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="AM31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV31" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF31" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL31" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM31" s="19"/>
@@ -9181,7 +9173,7 @@
     <row r="32" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>7</v>
@@ -9198,227 +9190,227 @@
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R32" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB32" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC32" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD32" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE32" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF32" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG32" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH32" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AI32" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AK32" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AL32" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AM32" s="20">
         <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
-      <c r="AN32" s="20">
+      <c r="AI32" s="20">
         <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
+      <c r="AJ32" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AK32" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AL32" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AM32" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AN32" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
       <c r="AO32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV32" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF32" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL32" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM32" s="19"/>
@@ -9426,7 +9418,7 @@
     <row r="33" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>8</v>
@@ -9443,227 +9435,227 @@
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="I33:AN33" ca="1" si="22">IF(AND($C33="Goal",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Y33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Z33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AA33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AB33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AC33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AD33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AE33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AF33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AG33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AH33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AI33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AJ33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AK33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AL33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AM33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS33" s="20">
-        <f ca="1">IF(AND($C33="Goal",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="AT33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL33" s="20" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM33" s="19"/>
@@ -9671,7 +9663,7 @@
     <row r="34" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>7</v>
@@ -9688,227 +9680,227 @@
       </c>
       <c r="H34" s="55"/>
       <c r="I34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R34" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="S34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB34" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL34" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AM34" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN34" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AP34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AQ34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AR34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AS34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AT34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AU34" s="20">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="AV34" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF34" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL34" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BM34" s="19"/>
@@ -9916,20 +9908,20 @@
     <row r="35" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="24">
         <v>0</v>
       </c>
       <c r="F35" s="25">
-        <v>44818</v>
+        <v>44803</v>
       </c>
       <c r="G35" s="26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H35" s="55"/>
       <c r="I35" s="20" t="str">
@@ -10104,9 +10096,9 @@
         <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
-      <c r="AZ35" s="20">
+      <c r="AZ35" s="20" t="str">
         <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BA35" s="20" t="str">
         <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
@@ -10161,244 +10153,244 @@
     <row r="36" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="100"/>
       <c r="E36" s="24">
         <v>0</v>
       </c>
       <c r="F36" s="25">
-        <v>44814</v>
+        <v>44803</v>
       </c>
       <c r="G36" s="26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H36" s="55"/>
       <c r="I36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="J36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="K36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="L36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="M36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="N36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="O36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="P36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="Q36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="R36" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C36="Goal",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="S36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="T36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="U36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="V36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="W36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="X36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="Y36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="Z36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AA36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AB36" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AC36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AD36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AE36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AF36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AG36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AH36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AI36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AK36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AL36" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C36="Goal",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AM36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AN36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AO36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AP36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AR36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AS36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AT36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C36="Goal",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="AU36" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AV36" s="20">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AW36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AX36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AY36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AZ36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BA36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BB36" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <f ca="1">IF(AND($C36="Goal",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB36" s="20" t="str">
+        <f ca="1">IF(AND($C36="Goal",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),1,""))</f>
+        <v/>
       </c>
       <c r="BC36" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C36="Goal",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BD36" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C36="Goal",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BE36" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C36="Goal",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BF36" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C36="Goal",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BG36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BH36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BI36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BK36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BL36" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C36="Goal",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),1,""))</f>
         <v/>
       </c>
       <c r="BM36" s="19"/>
@@ -10406,7 +10398,7 @@
     <row r="37" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>8</v>
@@ -10416,730 +10408,560 @@
         <v>0</v>
       </c>
       <c r="F37" s="25">
-        <v>44825</v>
+        <v>44818</v>
       </c>
       <c r="G37" s="26">
         <v>1</v>
       </c>
       <c r="H37" s="55"/>
-      <c r="I37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="V37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG37" s="20">
-        <f ca="1">IF(AND($C37="Goal",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),1,""))</f>
+      <c r="I37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ37" s="20">
         <v>1</v>
       </c>
-      <c r="BH37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL37" s="20" t="str">
-        <f ca="1">IF(AND($C37="Goal",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),1,""))</f>
-        <v/>
+      <c r="BA37" s="20"/>
+      <c r="BB37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG37" s="20"/>
+      <c r="BH37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL37" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="BM37" s="19"/>
     </row>
     <row r="38" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="24">
         <v>0</v>
       </c>
       <c r="F38" s="25">
-        <v>44807</v>
+        <v>44814</v>
       </c>
       <c r="G38" s="26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H38" s="55"/>
-      <c r="I38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="J38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="L38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="M38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="N38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="O38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="P38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="Q38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="R38" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="S38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="T38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="U38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="V38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="W38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="X38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Y38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB38" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AD38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AE38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AF38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AG38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AH38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AI38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AK38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AL38" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AM38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AN38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AO38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AP38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AR38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AT38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AU38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AV38" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AW38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AX38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AY38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BA38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BB38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BC38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BD38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BE38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BF38" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BG38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BH38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BI38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BK38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BL38" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
+      <c r="I38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV38" s="20">
+        <v>2</v>
+      </c>
+      <c r="AW38" s="20">
+        <v>2</v>
+      </c>
+      <c r="AX38" s="20">
+        <v>2</v>
+      </c>
+      <c r="AY38" s="20">
+        <v>2</v>
+      </c>
+      <c r="AZ38" s="20">
+        <v>2</v>
+      </c>
+      <c r="BA38" s="20">
+        <v>2</v>
+      </c>
+      <c r="BB38" s="20">
+        <v>2</v>
+      </c>
+      <c r="BC38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL38" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="BM38" s="19"/>
     </row>
-    <row r="39" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="24">
         <v>0</v>
       </c>
       <c r="F39" s="25">
-        <v>44821</v>
+        <v>44825</v>
       </c>
       <c r="G39" s="26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H39" s="55"/>
-      <c r="I39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="J39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="L39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="M39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="N39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="O39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="P39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="Q39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="R39" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="S39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="T39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="U39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="V39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="W39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="X39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Y39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB39" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AD39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AE39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AF39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AG39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AH39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AI39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AJ39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AK39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AL39" s="20" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AM39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AN39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AO39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AP39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AR39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AT39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AU39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AV39" s="20" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AW39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AX39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AY39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AZ39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BA39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BB39" s="20" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BC39" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BD39" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BE39" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BF39" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+      <c r="I39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF39" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="BG39" s="20">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BH39" s="20">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BI39" s="20">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BJ39" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BK39" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BL39" s="20" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="BH39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL39" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="BM39" s="19"/>
     </row>
-    <row r="40" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="B40" s="27" t="s">
         <v>63</v>
       </c>
@@ -11151,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="25">
-        <v>44827</v>
+        <v>44821</v>
       </c>
       <c r="G40" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H40" s="55"/>
       <c r="I40" s="20" t="str">
@@ -11341,29 +11163,29 @@
         <f ca="1">IF(AND($C40="Goal",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
-      <c r="BC40" s="20" t="str">
+      <c r="BC40" s="20">
         <f ca="1">IF(AND($C40="Goal",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD40" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD40" s="20">
         <f ca="1">IF(AND($C40="Goal",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE40" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BE40" s="20">
         <f ca="1">IF(AND($C40="Goal",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF40" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF40" s="20">
         <f ca="1">IF(AND($C40="Goal",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG40" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG40" s="20">
         <f ca="1">IF(AND($C40="Goal",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH40" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="BH40" s="20">
         <f ca="1">IF(AND($C40="Goal",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),1,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BI40" s="20">
         <f ca="1">IF(AND($C40="Goal",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),1,""))</f>
@@ -11381,7 +11203,252 @@
         <f ca="1">IF(AND($C40="Goal",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
-      <c r="BM40" s="58"/>
+      <c r="BM40" s="19"/>
+    </row>
+    <row r="41" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>44827</v>
+      </c>
+      <c r="G41" s="26">
+        <v>1</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",I$7&gt;=$F41,I$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",I$7&gt;=$F41,I$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",J$7&gt;=$F41,J$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$7&gt;=$F41,J$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",K$7&gt;=$F41,K$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",K$7&gt;=$F41,K$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="L41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",L$7&gt;=$F41,L$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",L$7&gt;=$F41,L$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",M$7&gt;=$F41,M$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",M$7&gt;=$F41,M$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",N$7&gt;=$F41,N$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",N$7&gt;=$F41,N$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",O$7&gt;=$F41,O$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",O$7&gt;=$F41,O$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",P$7&gt;=$F41,P$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",P$7&gt;=$F41,P$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",Q$7&gt;=$F41,Q$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Q$7&gt;=$F41,Q$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",R$7&gt;=$F41,R$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",R$7&gt;=$F41,R$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",S$7&gt;=$F41,S$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",S$7&gt;=$F41,S$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",T$7&gt;=$F41,T$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",T$7&gt;=$F41,T$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",U$7&gt;=$F41,U$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",U$7&gt;=$F41,U$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",V$7&gt;=$F41,V$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",V$7&gt;=$F41,V$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",W$7&gt;=$F41,W$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",W$7&gt;=$F41,W$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",X$7&gt;=$F41,X$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",X$7&gt;=$F41,X$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",Y$7&gt;=$F41,Y$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Y$7&gt;=$F41,Y$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",Z$7&gt;=$F41,Z$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Z$7&gt;=$F41,Z$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AA$7&gt;=$F41,AA$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AA$7&gt;=$F41,AA$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AB$7&gt;=$F41,AB$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AB$7&gt;=$F41,AB$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AC$7&gt;=$F41,AC$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AC$7&gt;=$F41,AC$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AD$7&gt;=$F41,AD$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AD$7&gt;=$F41,AD$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AE$7&gt;=$F41,AE$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AE$7&gt;=$F41,AE$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AF$7&gt;=$F41,AF$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AF$7&gt;=$F41,AF$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AG$7&gt;=$F41,AG$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AG$7&gt;=$F41,AG$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AH$7&gt;=$F41,AH$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AH$7&gt;=$F41,AH$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AI$7&gt;=$F41,AI$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AI$7&gt;=$F41,AI$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AJ$7&gt;=$F41,AJ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AJ$7&gt;=$F41,AJ$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AK$7&gt;=$F41,AK$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AK$7&gt;=$F41,AK$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AL$7&gt;=$F41,AL$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AL$7&gt;=$F41,AL$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AM$7&gt;=$F41,AM$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AM$7&gt;=$F41,AM$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AN$7&gt;=$F41,AN$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AN$7&gt;=$F41,AN$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AO$7&gt;=$F41,AO$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AO$7&gt;=$F41,AO$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AP$7&gt;=$F41,AP$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$7&gt;=$F41,AP$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AQ$7&gt;=$F41,AQ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AQ$7&gt;=$F41,AQ$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AR$7&gt;=$F41,AR$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AR$7&gt;=$F41,AR$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AS$7&gt;=$F41,AS$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AS$7&gt;=$F41,AS$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AT41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AT$7&gt;=$F41,AT$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AT$7&gt;=$F41,AT$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AU$7&gt;=$F41,AU$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AU$7&gt;=$F41,AU$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AV$7&gt;=$F41,AV$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AV$7&gt;=$F41,AV$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AW$7&gt;=$F41,AW$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AW$7&gt;=$F41,AW$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AX$7&gt;=$F41,AX$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AX$7&gt;=$F41,AX$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AY$7&gt;=$F41,AY$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AY$7&gt;=$F41,AY$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",AZ$7&gt;=$F41,AZ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AZ$7&gt;=$F41,AZ$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BA$7&gt;=$F41,BA$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BA$7&gt;=$F41,BA$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BB$7&gt;=$F41,BB$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BB$7&gt;=$F41,BB$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BC$7&gt;=$F41,BC$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BC$7&gt;=$F41,BC$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BD$7&gt;=$F41,BD$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BD$7&gt;=$F41,BD$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BE$7&gt;=$F41,BE$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BE$7&gt;=$F41,BE$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BF$7&gt;=$F41,BF$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BF$7&gt;=$F41,BF$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BG$7&gt;=$F41,BG$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BG$7&gt;=$F41,BG$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BH$7&gt;=$F41,BH$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BH$7&gt;=$F41,BH$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI41" s="20">
+        <f ca="1">IF(AND($C41="Goal",BI$7&gt;=$F41,BI$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BI$7&gt;=$F41,BI$7&lt;=$F41+$G41-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="BJ41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BJ$7&gt;=$F41,BJ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BJ$7&gt;=$F41,BJ$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BK$7&gt;=$F41,BK$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BK$7&gt;=$F41,BK$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL41" s="20" t="str">
+        <f ca="1">IF(AND($C41="Goal",BL$7&gt;=$F41,BL$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BL$7&gt;=$F41,BL$7&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM41" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11394,8 +11461,8 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E40">
-    <cfRule type="dataBar" priority="104">
+  <conditionalFormatting sqref="E9:E41">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11408,84 +11475,60 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40 I7:BL31">
-    <cfRule type="expression" dxfId="58" priority="100">
+  <conditionalFormatting sqref="I7:BL31">
+    <cfRule type="expression" dxfId="33" priority="238">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="57" priority="103">
+    <cfRule type="expression" dxfId="32" priority="241">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="56" priority="102">
+    <cfRule type="expression" dxfId="31" priority="240">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="55" priority="101">
+    <cfRule type="expression" dxfId="30" priority="239">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL34 I37:BL40">
-    <cfRule type="expression" dxfId="19" priority="106" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL41">
+    <cfRule type="expression" dxfId="29" priority="244" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="245" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="246" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="247" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="248" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="54" priority="93">
-      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="dataBar" priority="80">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42261D4D-CEDB-443A-A026-82A8CA35E60F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="24" priority="231">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="49" priority="37">
-      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="23" priority="175">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="22" priority="160">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11499,55 +11542,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="21" priority="156">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="12" priority="16">
+  <conditionalFormatting sqref="I38:BL38">
+    <cfRule type="expression" dxfId="20" priority="45">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B72C7E7E-1FB7-4FF4-8D64-2D0AC1C1C1A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="19" priority="37">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>AND($C36="Low Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>AND($C36="High Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
-      <formula>AND($C36="On Track",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
-      <formula>AND($C36="Med Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
-      <formula>AND(LEN($C36)=0,I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>AND($C35="Low Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND($C35="High Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>AND($C35="On Track",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>AND($C35="Med Risk",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>AND(LEN($C35)=0,I$7&gt;=$F35,I$7&lt;=$F35+$G35-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E37">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11556,13 +11599,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A30031FB-9B4D-41A7-B5DF-119AD502E423}</x14:id>
+          <x14:id>{FE8518E8-447D-47D2-91F7-22440546A282}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11570,7 +11613,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{662A47A0-7258-440E-8D71-BC54CBC9C651}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C40" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C41" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{218D9212-09C8-4DA2-9014-64503951B170}">
@@ -11584,7 +11627,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{737D7247-B514-41B2-94CC-2F538E17DE66}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{6AB925DC-9BC9-4EC3-A848-25121289EECD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11" xr:uid="{77315CCB-C571-42B0-8983-9C17BB04F75F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A40" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A41" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -11610,7 +11653,7 @@
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>236220</xdr:rowOff>
                   </to>
@@ -11641,10 +11684,55 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E40</xm:sqref>
+          <xm:sqref>E9:E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="146" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+          <x14:cfRule type="dataBar" id="{12D3B618-59DD-4FD7-8708-51966D5A1F35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B72C7E7E-1FB7-4FF4-8D64-2D0AC1C1C1A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE8518E8-447D-47D2-91F7-22440546A282}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="284" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11660,10 +11748,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I40:BL40 I10:BL23 I25:BL31</xm:sqref>
+          <xm:sqref>I10:BL23 I25:BL31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="99" id="{F520BFA1-FC9E-4A07-AF6E-D208AE833EB8}">
+          <x14:cfRule type="iconSet" priority="237" id="{F520BFA1-FC9E-4A07-AF6E-D208AE833EB8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11682,22 +11770,64 @@
           <xm:sqref>I32:BL32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42261D4D-CEDB-443A-A026-82A8CA35E60F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
+          <x14:cfRule type="iconSet" priority="181" id="{E46128EF-8A4E-4369-B11D-89DE223F5947}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
               </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E37</xm:sqref>
+          <xm:sqref>I24:BL24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{820B17D2-C883-47F9-8C39-F9859A8F580E}">
+          <x14:cfRule type="iconSet" priority="159" id="{C3C69DE9-98FB-45B1-AD8A-F787F274AE52}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I34:BL34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="158" id="{12DCBDC5-8D4F-4EC9-99DA-2FEFE64366A3}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I33:BL33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{73775C11-0CD1-4475-A9F5-9115547DE9B1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11716,26 +11846,7 @@
           <xm:sqref>I38:BL38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{E46128EF-8A4E-4369-B11D-89DE223F5947}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I24:BL24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{B826F587-02EE-4948-8D85-70F77FB25FC8}">
+          <x14:cfRule type="iconSet" priority="38" id="{30C779A7-6621-4750-AC03-BCC880CD64A3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11754,7 +11865,7 @@
           <xm:sqref>I39:BL39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{C3C69DE9-98FB-45B1-AD8A-F787F274AE52}">
+          <x14:cfRule type="iconSet" priority="31" id="{13AAD871-BDC5-44EC-A210-8F00C4B4D090}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11770,25 +11881,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34:BL34</xm:sqref>
+          <xm:sqref>I40:BL40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12D3B618-59DD-4FD7-8708-51966D5A1F35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{12DCBDC5-8D4F-4EC9-99DA-2FEFE64366A3}">
+          <x14:cfRule type="iconSet" priority="29" id="{44B705C4-B34D-4380-B58A-EF54F39D7CEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11804,10 +11900,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I33:BL33</xm:sqref>
+          <xm:sqref>I41:BL41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{611D5CDA-4FD9-4B36-81B1-909270F18D15}">
+          <x14:cfRule type="iconSet" priority="17" id="{3355776B-49F9-4A47-B793-55B1BE8917D7}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11823,10 +11919,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I37:BL37</xm:sqref>
+          <xm:sqref>I35:BL35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{3E68F311-DFAD-42AC-83C9-22F018140AA3}">
+          <x14:cfRule type="iconSet" priority="10" id="{164E79B2-E45A-4E44-A740-EA8311B08365}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11845,22 +11941,7 @@
           <xm:sqref>I36:BL36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A30031FB-9B4D-41A7-B5DF-119AD502E423}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{54F9C8CD-35A9-4437-8BB4-6BDC82CD5FF8}">
+          <x14:cfRule type="iconSet" priority="2" id="{71EEBE0A-5425-4890-AAA6-28625B229AA2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11876,7 +11957,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I35:BL35</xm:sqref>
+          <xm:sqref>I37:BL37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12204,7 +12285,7 @@
       </c>
       <c r="C6" s="42" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="36"/>
@@ -12308,227 +12389,227 @@
       <c r="H7" s="46"/>
       <c r="I7" s="65">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="J7" s="66">
         <f ca="1">I7+1</f>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="K7" s="66">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="L7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="M7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="N7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="O7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="P7" s="66">
         <f ca="1">O7+1</f>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="Q7" s="66">
         <f ca="1">P7+1</f>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="R7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="S7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="T7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="U7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="V7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="W7" s="66">
         <f ca="1">V7+1</f>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="X7" s="66">
         <f ca="1">W7+1</f>
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="Y7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="Z7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="AA7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="AB7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="AC7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="AD7" s="66">
         <f ca="1">AC7+1</f>
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="AE7" s="66">
         <f ca="1">AD7+1</f>
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="AF7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="AG7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="AH7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="AI7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="AJ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="AK7" s="66">
         <f ca="1">AJ7+1</f>
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="AL7" s="66">
         <f ca="1">AK7+1</f>
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="AM7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="AN7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="AO7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="AP7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="AQ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="AR7" s="66">
         <f ca="1">AQ7+1</f>
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="AS7" s="66">
         <f ca="1">AR7+1</f>
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="AT7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="AU7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="AV7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="AW7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="AX7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="AY7" s="66">
         <f ca="1">AX7+1</f>
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="AZ7" s="66">
         <f ca="1">AY7+1</f>
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="BA7" s="66">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="BB7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="BC7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="BD7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="BE7" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="BF7" s="66">
         <f ca="1">BE7+1</f>
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="BG7" s="66">
         <f ca="1">BF7+1</f>
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="BH7" s="66">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="BI7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="BJ7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="BK7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="BL7" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="BM7" s="51"/>
     </row>
@@ -12626,27 +12707,27 @@
       </c>
       <c r="J9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="K9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="L9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="M9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="N9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="P9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12654,27 +12735,27 @@
       </c>
       <c r="Q9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="R9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="S9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="T9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="U9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="V9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="W9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12682,27 +12763,27 @@
       </c>
       <c r="X9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12710,27 +12791,27 @@
       </c>
       <c r="AE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12738,27 +12819,27 @@
       </c>
       <c r="AL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AO9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AQ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12766,27 +12847,27 @@
       </c>
       <c r="AS9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AV9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AX9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12794,27 +12875,27 @@
       </c>
       <c r="AZ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12822,27 +12903,27 @@
       </c>
       <c r="BG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="51"/>
     </row>
@@ -12915,7 +12996,7 @@
     <row r="11" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -13153,20 +13234,20 @@
     <row r="12" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="24">
         <v>1</v>
       </c>
       <c r="F12" s="25">
         <f ca="1">TODAY()-7</f>
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="G12" s="26">
         <v>5</v>
@@ -13401,7 +13482,7 @@
     <row r="13" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>8</v>
@@ -13410,7 +13491,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25">
         <f ca="1">TODAY()+5</f>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -13645,7 +13726,7 @@
     <row r="14" spans="1:68" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>13</v>
@@ -13656,7 +13737,7 @@
       </c>
       <c r="F14" s="25">
         <f ca="1">F12-3</f>
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="G14" s="26">
         <v>10</v>
@@ -13900,7 +13981,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25">
         <f ca="1">F12+20</f>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="55"/>
@@ -14144,7 +14225,7 @@
       </c>
       <c r="F16" s="25">
         <f ca="1">F12+6</f>
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="G16" s="26">
         <v>6</v>
@@ -14379,7 +14460,7 @@
     <row r="17" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -14627,7 +14708,7 @@
       </c>
       <c r="F18" s="25">
         <f ca="1">F12+6</f>
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="G18" s="26">
         <v>13</v>
@@ -14873,7 +14954,7 @@
       </c>
       <c r="F19" s="25">
         <f ca="1">F18+2</f>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="G19" s="26">
         <v>9</v>
@@ -15119,7 +15200,7 @@
       </c>
       <c r="F20" s="25">
         <f ca="1">F19+5</f>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="G20" s="26">
         <v>11</v>
@@ -15363,7 +15444,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25">
         <f ca="1">F20+2</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -15605,7 +15686,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25">
         <f ca="1">F21+1</f>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="G22" s="26">
         <v>24</v>
@@ -15840,7 +15921,7 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -16086,7 +16167,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25">
         <f ca="1">F12+15</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="G24" s="26">
         <v>4</v>
@@ -16330,7 +16411,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25">
         <f ca="1">F24+3</f>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="G25" s="26">
         <v>14</v>
@@ -16574,7 +16655,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25">
         <f ca="1">F25+15</f>
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="G26" s="26">
         <v>6</v>
@@ -16818,7 +16899,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25">
         <f ca="1">F21+22</f>
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="G27" s="26">
         <v>3</v>
@@ -17062,7 +17143,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25">
         <f ca="1">F16</f>
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="G28" s="26">
         <v>19</v>
@@ -17297,7 +17378,7 @@
     <row r="29" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -17541,7 +17622,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25">
         <f ca="1">F27+3</f>
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="G30" s="26">
         <v>15</v>
@@ -17783,7 +17864,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25">
         <f ca="1">F30+14</f>
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="G31" s="26">
         <v>5</v>
@@ -18027,7 +18108,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25">
         <f ca="1">F31+42</f>
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="G32" s="26">
         <v>1</v>
@@ -19071,56 +19152,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19247,34 +19328,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19550,27 +19603,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19589,4 +19650,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stage 2/Agile Gantt chart1.xlsx
+++ b/Stage 2/Agile Gantt chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F99F7F-B850-4A37-802F-3C74527988CB}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A128512-76C0-4E41-8F37-0D752C8F5F0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,9 +264,6 @@
     <t>Search the shortest routes with the inputs from the user</t>
   </si>
   <si>
-    <t>Putting all the codes together and display the output</t>
-  </si>
-  <si>
     <t>Read and write and organize data from PDF to a notepad</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Putting all the codes together and testing.</t>
   </si>
 </sst>
 </file>
@@ -975,6 +975,9 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1014,9 +1017,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1033,6 +1033,36 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="59">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1283,6 +1313,121 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1612,151 +1757,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2115,7 +2115,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
@@ -2555,7 +2555,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2565,12 +2565,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="39" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="38" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="19" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="18" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2582,7 +2582,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2592,9 +2592,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2891,11 +2891,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7"/>
       <c r="B2" s="80"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="80"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2923,11 +2923,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7"/>
       <c r="B4" s="75"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="75"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2940,11 +2940,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
       <c r="B5" s="75"/>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="75"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3047,7 +3047,7 @@
   <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3070,27 +3070,27 @@
     <row r="1" spans="1:68" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
@@ -3217,40 +3217,40 @@
         <v>17</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
       <c r="R4" s="51"/>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
       <c r="W4" s="51"/>
-      <c r="X4" s="89" t="s">
+      <c r="X4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
       <c r="AB4" s="51"/>
-      <c r="AC4" s="90" t="s">
+      <c r="AC4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
       <c r="AG4" s="51"/>
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
@@ -7952,7 +7952,7 @@
     <row r="27" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>7</v>
@@ -9908,7 +9908,7 @@
     <row r="35" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>12</v>
@@ -9925,227 +9925,227 @@
       </c>
       <c r="H35" s="55"/>
       <c r="I35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="I35:R36" ca="1" si="23">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="L35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="M35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="N35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="O35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="P35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Q35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="R35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="S35:AB36" ca="1" si="24">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="T35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AA35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AB35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AC35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="AC35:AL36" ca="1" si="25">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AD35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="AM35:AV36" ca="1" si="26">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AN35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AO35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AP35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="AW35:BF36" ca="1" si="27">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AX35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AY35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AZ35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BA35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BB35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BC35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BD35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BE35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BF35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="BG35:BL36" ca="1" si="28">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BH35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BI35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BJ35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BK35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BL35" s="20" t="str">
-        <f ca="1">IF(AND($C35="Goal",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BM35" s="19"/>
@@ -10153,12 +10153,12 @@
     <row r="36" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="100"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="24">
         <v>0</v>
       </c>
@@ -10170,227 +10170,227 @@
       </c>
       <c r="H36" s="55"/>
       <c r="I36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="J36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="L36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="M36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="N36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="O36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="P36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Q36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="R36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AA36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AB36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AC36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AN36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AO36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AP36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AX36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AY36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AZ36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BA36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BB36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BC36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BD36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BE36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BF36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BH36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BI36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BJ36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BK36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BL36" s="20" t="str">
-        <f ca="1">IF(AND($C36="Goal",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BM36" s="19"/>
@@ -10415,175 +10415,175 @@
       </c>
       <c r="H37" s="55"/>
       <c r="I37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AR37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ37" s="20">
         <v>1</v>
       </c>
       <c r="BA37" s="20"/>
       <c r="BB37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG37" s="20"/>
       <c r="BH37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BI37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BJ37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BK37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM37" s="19"/>
     </row>
     <row r="38" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>7</v>
@@ -10600,121 +10600,121 @@
       </c>
       <c r="H38" s="55"/>
       <c r="I38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AR38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV38" s="20">
         <v>2</v>
@@ -10738,34 +10738,34 @@
         <v>2</v>
       </c>
       <c r="BC38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BH38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BI38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BJ38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BK38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL38" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM38" s="19"/>
     </row>
@@ -10789,178 +10789,178 @@
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AR39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BA39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BB39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG39" s="20">
         <v>1</v>
       </c>
       <c r="BH39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BI39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BJ39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BK39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM39" s="19"/>
     </row>
     <row r="40" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>63</v>
@@ -10980,227 +10980,227 @@
       </c>
       <c r="H40" s="55"/>
       <c r="I40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="I40:R41" ca="1" si="29">IF(AND($C40="Goal",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="J40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",J$7&gt;=$F40,J$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",J$7&gt;=$F40,J$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",K$7&gt;=$F40,K$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",K$7&gt;=$F40,K$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="L40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",L$7&gt;=$F40,L$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",L$7&gt;=$F40,L$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="M40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",M$7&gt;=$F40,M$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",M$7&gt;=$F40,M$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="N40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",N$7&gt;=$F40,N$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",N$7&gt;=$F40,N$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="O40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",O$7&gt;=$F40,O$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",O$7&gt;=$F40,O$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="P40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",P$7&gt;=$F40,P$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",P$7&gt;=$F40,P$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="Q40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",Q$7&gt;=$F40,Q$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Q$7&gt;=$F40,Q$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",R$7&gt;=$F40,R$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",R$7&gt;=$F40,R$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="S40:AB41" ca="1" si="30">IF(AND($C40="Goal",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",S$7&gt;=$F40,S$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="T40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",T$7&gt;=$F40,T$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",T$7&gt;=$F40,T$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="U40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",U$7&gt;=$F40,U$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",U$7&gt;=$F40,U$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="V40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",V$7&gt;=$F40,V$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",V$7&gt;=$F40,V$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="W40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",W$7&gt;=$F40,W$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",W$7&gt;=$F40,W$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="X40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",X$7&gt;=$F40,X$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",X$7&gt;=$F40,X$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Y40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",Y$7&gt;=$F40,Y$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Y$7&gt;=$F40,Y$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Z40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",Z$7&gt;=$F40,Z$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",Z$7&gt;=$F40,Z$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AA40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AA$7&gt;=$F40,AA$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AA$7&gt;=$F40,AA$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AB40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AB$7&gt;=$F40,AB$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AB$7&gt;=$F40,AB$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AC40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="AC40:AL41" ca="1" si="31">IF(AND($C40="Goal",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AC$7&gt;=$F40,AC$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="AD40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AD$7&gt;=$F40,AD$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AD$7&gt;=$F40,AD$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AE40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AE$7&gt;=$F40,AE$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AE$7&gt;=$F40,AE$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AF40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AF$7&gt;=$F40,AF$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AF$7&gt;=$F40,AF$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AG40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AG$7&gt;=$F40,AG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AG$7&gt;=$F40,AG$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AH40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AH$7&gt;=$F40,AH$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AH$7&gt;=$F40,AH$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AI40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AI$7&gt;=$F40,AI$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AI$7&gt;=$F40,AI$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AJ40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AJ$7&gt;=$F40,AJ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AJ$7&gt;=$F40,AJ$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AK40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AK$7&gt;=$F40,AK$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AK$7&gt;=$F40,AK$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AL40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AL$7&gt;=$F40,AL$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AL$7&gt;=$F40,AL$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AM40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="AM40:AV41" ca="1" si="32">IF(AND($C40="Goal",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AM$7&gt;=$F40,AM$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="AN40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AN$7&gt;=$F40,AN$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AN$7&gt;=$F40,AN$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AO40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AO$7&gt;=$F40,AO$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AO$7&gt;=$F40,AO$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AP40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AP$7&gt;=$F40,AP$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AP$7&gt;=$F40,AP$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AQ40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AQ$7&gt;=$F40,AQ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AQ$7&gt;=$F40,AQ$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AR40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AR$7&gt;=$F40,AR$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AR$7&gt;=$F40,AR$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AS40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AS$7&gt;=$F40,AS$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AS$7&gt;=$F40,AS$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AT40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AT$7&gt;=$F40,AT$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AT$7&gt;=$F40,AT$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AU40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AU$7&gt;=$F40,AU$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AU$7&gt;=$F40,AU$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AV40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AV$7&gt;=$F40,AV$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AV$7&gt;=$F40,AV$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AW40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="AW40:BF41" ca="1" si="33">IF(AND($C40="Goal",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AW$7&gt;=$F40,AW$7&lt;=$F40+$G40-1),1,""))</f>
         <v/>
       </c>
       <c r="AX40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AX$7&gt;=$F40,AX$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AX$7&gt;=$F40,AX$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AY40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AY$7&gt;=$F40,AY$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AY$7&gt;=$F40,AY$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AZ40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",AZ$7&gt;=$F40,AZ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",AZ$7&gt;=$F40,AZ$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BA40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",BA$7&gt;=$F40,BA$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BA$7&gt;=$F40,BA$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BB40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BB$7&gt;=$F40,BB$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BC40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BC$7&gt;=$F40,BC$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="BD40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BD$7&gt;=$F40,BD$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="BE40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BE$7&gt;=$F40,BE$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="BF40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BF$7&gt;=$F40,BF$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="BG40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ref="BG40:BL41" ca="1" si="34">IF(AND($C40="Goal",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BG$7&gt;=$F40,BG$7&lt;=$F40+$G40-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BH40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BH$7&gt;=$F40,BH$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>2</v>
       </c>
       <c r="BI40" s="20">
-        <f ca="1">IF(AND($C40="Goal",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BI$7&gt;=$F40,BI$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>2</v>
       </c>
       <c r="BJ40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",BJ$7&gt;=$F40,BJ$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BJ$7&gt;=$F40,BJ$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BK40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",BK$7&gt;=$F40,BK$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BK$7&gt;=$F40,BK$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BL40" s="20" t="str">
-        <f ca="1">IF(AND($C40="Goal",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),2,IF(AND($C40="Milestone",BL$7&gt;=$F40,BL$7&lt;=$F40+$G40-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BM40" s="19"/>
@@ -11225,227 +11225,227 @@
       </c>
       <c r="H41" s="55"/>
       <c r="I41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",I$7&gt;=$F41,I$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",I$7&gt;=$F41,I$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="J41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",J$7&gt;=$F41,J$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",J$7&gt;=$F41,J$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",K$7&gt;=$F41,K$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",K$7&gt;=$F41,K$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="L41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",L$7&gt;=$F41,L$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",L$7&gt;=$F41,L$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="M41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",M$7&gt;=$F41,M$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",M$7&gt;=$F41,M$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="N41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",N$7&gt;=$F41,N$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",N$7&gt;=$F41,N$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="O41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",O$7&gt;=$F41,O$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",O$7&gt;=$F41,O$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="P41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",P$7&gt;=$F41,P$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",P$7&gt;=$F41,P$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="Q41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",Q$7&gt;=$F41,Q$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Q$7&gt;=$F41,Q$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",R$7&gt;=$F41,R$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",R$7&gt;=$F41,R$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",S$7&gt;=$F41,S$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",S$7&gt;=$F41,S$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",T$7&gt;=$F41,T$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",T$7&gt;=$F41,T$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="U41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",U$7&gt;=$F41,U$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",U$7&gt;=$F41,U$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="V41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",V$7&gt;=$F41,V$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",V$7&gt;=$F41,V$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="W41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",W$7&gt;=$F41,W$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",W$7&gt;=$F41,W$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="X41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",X$7&gt;=$F41,X$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",X$7&gt;=$F41,X$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Y41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",Y$7&gt;=$F41,Y$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Y$7&gt;=$F41,Y$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Z41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",Z$7&gt;=$F41,Z$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",Z$7&gt;=$F41,Z$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AA41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AA$7&gt;=$F41,AA$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AA$7&gt;=$F41,AA$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AB41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AB$7&gt;=$F41,AB$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AB$7&gt;=$F41,AB$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AC41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AC$7&gt;=$F41,AC$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AC$7&gt;=$F41,AC$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AD41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AD$7&gt;=$F41,AD$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AD$7&gt;=$F41,AD$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AE41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AE$7&gt;=$F41,AE$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AE$7&gt;=$F41,AE$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AF41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AF$7&gt;=$F41,AF$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AF$7&gt;=$F41,AF$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AG41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AG$7&gt;=$F41,AG$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AG$7&gt;=$F41,AG$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AH41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AH$7&gt;=$F41,AH$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AH$7&gt;=$F41,AH$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AI41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AI$7&gt;=$F41,AI$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AI$7&gt;=$F41,AI$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AJ41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AJ$7&gt;=$F41,AJ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AJ$7&gt;=$F41,AJ$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AK41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AK$7&gt;=$F41,AK$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AK$7&gt;=$F41,AK$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AL41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AL$7&gt;=$F41,AL$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AL$7&gt;=$F41,AL$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AM41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AM$7&gt;=$F41,AM$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AM$7&gt;=$F41,AM$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AN41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AN$7&gt;=$F41,AN$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AN$7&gt;=$F41,AN$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AO41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AO$7&gt;=$F41,AO$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AO$7&gt;=$F41,AO$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AP41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AP$7&gt;=$F41,AP$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AP$7&gt;=$F41,AP$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AQ41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AQ$7&gt;=$F41,AQ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AQ$7&gt;=$F41,AQ$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AR41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AR$7&gt;=$F41,AR$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AR$7&gt;=$F41,AR$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AS41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AS$7&gt;=$F41,AS$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AS$7&gt;=$F41,AS$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AT41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AT$7&gt;=$F41,AT$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AT$7&gt;=$F41,AT$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AU41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AU$7&gt;=$F41,AU$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AU$7&gt;=$F41,AU$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AV41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AV$7&gt;=$F41,AV$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AV$7&gt;=$F41,AV$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AW41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AW$7&gt;=$F41,AW$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AW$7&gt;=$F41,AW$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AX41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AX$7&gt;=$F41,AX$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AX$7&gt;=$F41,AX$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AY41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AY$7&gt;=$F41,AY$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AY$7&gt;=$F41,AY$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AZ41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",AZ$7&gt;=$F41,AZ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",AZ$7&gt;=$F41,AZ$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BA41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BA$7&gt;=$F41,BA$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BA$7&gt;=$F41,BA$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BB41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BB$7&gt;=$F41,BB$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BB$7&gt;=$F41,BB$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BC41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BC$7&gt;=$F41,BC$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BC$7&gt;=$F41,BC$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BD41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BD$7&gt;=$F41,BD$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BD$7&gt;=$F41,BD$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BE41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BE$7&gt;=$F41,BE$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BE$7&gt;=$F41,BE$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BF41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BF$7&gt;=$F41,BF$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BF$7&gt;=$F41,BF$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BG41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BG$7&gt;=$F41,BG$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BG$7&gt;=$F41,BG$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BH41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BH$7&gt;=$F41,BH$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BH$7&gt;=$F41,BH$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BI41" s="20">
-        <f ca="1">IF(AND($C41="Goal",BI$7&gt;=$F41,BI$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BI$7&gt;=$F41,BI$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>2</v>
       </c>
       <c r="BJ41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BJ$7&gt;=$F41,BJ$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BJ$7&gt;=$F41,BJ$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BK41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BK$7&gt;=$F41,BK$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BK$7&gt;=$F41,BK$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BL41" s="20" t="str">
-        <f ca="1">IF(AND($C41="Goal",BL$7&gt;=$F41,BL$7&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",BL$7&gt;=$F41,BL$7&lt;=$F41+$G41-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BM41" s="58"/>
@@ -11476,54 +11476,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL31">
-    <cfRule type="expression" dxfId="33" priority="238">
+    <cfRule type="expression" dxfId="45" priority="238">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="32" priority="241">
+    <cfRule type="expression" dxfId="44" priority="241">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="31" priority="240">
+    <cfRule type="expression" dxfId="43" priority="240">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="30" priority="239">
+    <cfRule type="expression" dxfId="42" priority="239">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL41">
-    <cfRule type="expression" dxfId="29" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="244" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="245" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="246" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="247" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="248" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="24" priority="231">
+    <cfRule type="expression" dxfId="36" priority="231">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="23" priority="175">
+    <cfRule type="expression" dxfId="35" priority="175">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="22" priority="160">
+    <cfRule type="expression" dxfId="34" priority="160">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11542,12 +11542,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="21" priority="156">
+    <cfRule type="expression" dxfId="33" priority="156">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="20" priority="45">
+    <cfRule type="expression" dxfId="32" priority="45">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11566,27 +11566,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="19" priority="37">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL35">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11605,7 +11605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11994,27 +11994,27 @@
     <row r="1" spans="1:68" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
       <c r="U2" s="64"/>
       <c r="V2" s="64"/>
       <c r="W2" s="64"/>
@@ -12141,40 +12141,40 @@
         <v>17</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
       <c r="R4" s="51"/>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
       <c r="W4" s="51"/>
-      <c r="X4" s="89" t="s">
+      <c r="X4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
       <c r="AB4" s="51"/>
-      <c r="AC4" s="90" t="s">
+      <c r="AC4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
       <c r="AG4" s="51"/>
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
@@ -19152,56 +19152,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19328,6 +19328,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19603,35 +19631,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19650,24 +19670,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Stage 2/Agile Gantt chart1.xlsx
+++ b/Stage 2/Agile Gantt chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A128512-76C0-4E41-8F37-0D752C8F5F0A}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A229B6-45B3-4175-831C-7FBA0256A98F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>Search the shortest routes with the inputs from the user</t>
-  </si>
-  <si>
     <t>Read and write and organize data from PDF to a notepad</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>Putting all the codes together and testing.</t>
+  </si>
+  <si>
+    <t>Search the all routes with the inputs from the user</t>
   </si>
 </sst>
 </file>
@@ -2272,61 +2272,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13658850" y="12782550"/>
-          <a:ext cx="847725" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -2469,6 +2414,116 @@
         <a:xfrm>
           <a:off x="17240250" y="15325725"/>
           <a:ext cx="638175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B553EA8C-23B9-446E-886C-6C6A8E85597C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17468850" y="15840075"/>
+          <a:ext cx="400050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DAFD77-4EE6-49BE-BB45-41BF1DF3DBF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17440275" y="16306799"/>
+          <a:ext cx="400050" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3046,8 +3101,8 @@
   </sheetPr>
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7480,7 +7535,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
       <c r="F25" s="25">
-        <v>44795</v>
+        <v>44792</v>
       </c>
       <c r="G25" s="26">
         <v>1</v>
@@ -7554,9 +7609,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="Z25" s="20" t="str">
+      <c r="Z25" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA25" s="20" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7566,9 +7621,9 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AC25" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+      <c r="AC25" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="AD25" s="20" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7952,7 +8007,7 @@
     <row r="27" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>7</v>
@@ -9173,7 +9228,7 @@
     <row r="32" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>7</v>
@@ -9908,7 +9963,7 @@
     <row r="35" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>12</v>
@@ -10153,7 +10208,7 @@
     <row r="36" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>12</v>
@@ -10404,9 +10459,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
+      <c r="E37" s="24"/>
       <c r="F37" s="25">
         <v>44818</v>
       </c>
@@ -10415,175 +10468,175 @@
       </c>
       <c r="H37" s="55"/>
       <c r="I37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AT37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AX37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ37" s="20">
         <v>1</v>
       </c>
       <c r="BA37" s="20"/>
       <c r="BB37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BG37" s="20"/>
       <c r="BH37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BI37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BK37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BM37" s="19"/>
     </row>
     <row r="38" spans="1:65" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>7</v>
@@ -10600,121 +10653,121 @@
       </c>
       <c r="H38" s="55"/>
       <c r="I38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AT38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV38" s="20">
         <v>2</v>
@@ -10738,34 +10791,34 @@
         <v>2</v>
       </c>
       <c r="BC38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BG38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BH38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BI38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BK38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BM38" s="19"/>
     </row>
@@ -10778,9 +10831,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="23"/>
-      <c r="E39" s="24">
-        <v>0</v>
-      </c>
+      <c r="E39" s="24"/>
       <c r="F39" s="25">
         <v>44825</v>
       </c>
@@ -10789,178 +10840,178 @@
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AT39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AX39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BB39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BG39" s="20">
         <v>1</v>
       </c>
       <c r="BH39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BI39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BK39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BM39" s="19"/>
     </row>
     <row r="40" spans="1:65" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>63</v>
@@ -11214,9 +11265,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="23"/>
-      <c r="E41" s="24">
-        <v>0</v>
-      </c>
+      <c r="E41" s="24"/>
       <c r="F41" s="25">
         <v>44827</v>
       </c>
@@ -12285,7 +12334,7 @@
       </c>
       <c r="C6" s="42" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="36"/>
@@ -12389,227 +12438,227 @@
       <c r="H7" s="46"/>
       <c r="I7" s="65">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="J7" s="66">
         <f ca="1">I7+1</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="K7" s="66">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="L7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="M7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="N7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="O7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="P7" s="66">
         <f ca="1">O7+1</f>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="Q7" s="66">
         <f ca="1">P7+1</f>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="R7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="S7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="T7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="U7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="V7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="W7" s="66">
         <f ca="1">V7+1</f>
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="X7" s="66">
         <f ca="1">W7+1</f>
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="Y7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="Z7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="AA7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="AB7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="AC7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="AD7" s="66">
         <f ca="1">AC7+1</f>
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="AE7" s="66">
         <f ca="1">AD7+1</f>
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="AF7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="AG7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="AH7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="AI7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="AJ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="AK7" s="66">
         <f ca="1">AJ7+1</f>
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="AL7" s="66">
         <f ca="1">AK7+1</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="AM7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="AN7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="AO7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="AP7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="AQ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="AR7" s="66">
         <f ca="1">AQ7+1</f>
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="AS7" s="66">
         <f ca="1">AR7+1</f>
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="AT7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="AU7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="AV7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="AW7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="AX7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="AY7" s="66">
         <f ca="1">AX7+1</f>
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="AZ7" s="66">
         <f ca="1">AY7+1</f>
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="BA7" s="66">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="BB7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="BC7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="BD7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="BE7" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="BF7" s="66">
         <f ca="1">BE7+1</f>
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="BG7" s="66">
         <f ca="1">BF7+1</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="BH7" s="66">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="BI7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="BJ7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="BK7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="BL7" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="BM7" s="51"/>
     </row>
@@ -12703,27 +12752,27 @@
       <c r="H9" s="57"/>
       <c r="I9" s="73" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="J9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="K9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="L9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="M9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="O9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12731,27 +12780,27 @@
       </c>
       <c r="P9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Q9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="R9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="S9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="T9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="U9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="V9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12759,27 +12808,27 @@
       </c>
       <c r="W9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="X9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Z9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12787,27 +12836,27 @@
       </c>
       <c r="AD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12815,27 +12864,27 @@
       </c>
       <c r="AK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AN9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AP9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12843,27 +12892,27 @@
       </c>
       <c r="AR9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AS9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AU9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AW9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12871,27 +12920,27 @@
       </c>
       <c r="AY9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AZ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12899,27 +12948,27 @@
       </c>
       <c r="BF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13247,7 +13296,7 @@
       </c>
       <c r="F12" s="25">
         <f ca="1">TODAY()-7</f>
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="G12" s="26">
         <v>5</v>
@@ -13491,7 +13540,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25">
         <f ca="1">TODAY()+5</f>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -13737,7 +13786,7 @@
       </c>
       <c r="F14" s="25">
         <f ca="1">F12-3</f>
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="G14" s="26">
         <v>10</v>
@@ -13981,7 +14030,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25">
         <f ca="1">F12+20</f>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="55"/>
@@ -14225,7 +14274,7 @@
       </c>
       <c r="F16" s="25">
         <f ca="1">F12+6</f>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="G16" s="26">
         <v>6</v>
@@ -14708,7 +14757,7 @@
       </c>
       <c r="F18" s="25">
         <f ca="1">F12+6</f>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="G18" s="26">
         <v>13</v>
@@ -14954,7 +15003,7 @@
       </c>
       <c r="F19" s="25">
         <f ca="1">F18+2</f>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="G19" s="26">
         <v>9</v>
@@ -15200,7 +15249,7 @@
       </c>
       <c r="F20" s="25">
         <f ca="1">F19+5</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="G20" s="26">
         <v>11</v>
@@ -15444,7 +15493,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25">
         <f ca="1">F20+2</f>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -15686,7 +15735,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25">
         <f ca="1">F21+1</f>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="G22" s="26">
         <v>24</v>
@@ -16167,7 +16216,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25">
         <f ca="1">F12+15</f>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="G24" s="26">
         <v>4</v>
@@ -16411,7 +16460,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25">
         <f ca="1">F24+3</f>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="G25" s="26">
         <v>14</v>
@@ -16655,7 +16704,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25">
         <f ca="1">F25+15</f>
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="G26" s="26">
         <v>6</v>
@@ -16899,7 +16948,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25">
         <f ca="1">F21+22</f>
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="G27" s="26">
         <v>3</v>
@@ -17143,7 +17192,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25">
         <f ca="1">F16</f>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="G28" s="26">
         <v>19</v>
@@ -17622,7 +17671,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25">
         <f ca="1">F27+3</f>
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="G30" s="26">
         <v>15</v>
@@ -17864,7 +17913,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25">
         <f ca="1">F30+14</f>
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="G31" s="26">
         <v>5</v>
@@ -18108,7 +18157,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25">
         <f ca="1">F31+42</f>
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="G32" s="26">
         <v>1</v>
@@ -19328,34 +19377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19631,27 +19652,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19670,4 +19699,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Stage 2/Agile Gantt chart1.xlsx
+++ b/Stage 2/Agile Gantt chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A229B6-45B3-4175-831C-7FBA0256A98F}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{10ECEAB9-318C-4B66-9864-29739EDE3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D819FF-CC63-473B-A9B7-71F64D2E43BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,7 +2459,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B553EA8C-23B9-446E-886C-6C6A8E85597C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2514,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DAFD77-4EE6-49BE-BB45-41BF1DF3DBF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,8 +3101,8 @@
   </sheetPr>
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="24">
         <v>0.5</v>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="24">
         <v>0.5</v>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="C6" s="42" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="36"/>
@@ -12438,227 +12438,227 @@
       <c r="H7" s="46"/>
       <c r="I7" s="65">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="J7" s="66">
         <f ca="1">I7+1</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="K7" s="66">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="L7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="M7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="N7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="O7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="P7" s="66">
         <f ca="1">O7+1</f>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="Q7" s="66">
         <f ca="1">P7+1</f>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="R7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="S7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="T7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="U7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="V7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="W7" s="66">
         <f ca="1">V7+1</f>
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="X7" s="66">
         <f ca="1">W7+1</f>
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="Y7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="Z7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="AA7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="AB7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="AC7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="AD7" s="66">
         <f ca="1">AC7+1</f>
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="AE7" s="66">
         <f ca="1">AD7+1</f>
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="AF7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="AG7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="AH7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="AI7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="AJ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="AK7" s="66">
         <f ca="1">AJ7+1</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="AL7" s="66">
         <f ca="1">AK7+1</f>
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="AM7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="AN7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="AO7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="AP7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="AQ7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="AR7" s="66">
         <f ca="1">AQ7+1</f>
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="AS7" s="66">
         <f ca="1">AR7+1</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="AT7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="AU7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="AV7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="AW7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="AX7" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="AY7" s="66">
         <f ca="1">AX7+1</f>
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="AZ7" s="66">
         <f ca="1">AY7+1</f>
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="BA7" s="66">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="BB7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="BC7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="BD7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="BE7" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="BF7" s="66">
         <f ca="1">BE7+1</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="BG7" s="66">
         <f ca="1">BF7+1</f>
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="BH7" s="66">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="BI7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="BJ7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="BK7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="BL7" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="BM7" s="51"/>
     </row>
@@ -12752,23 +12752,23 @@
       <c r="H9" s="57"/>
       <c r="I9" s="73" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="K9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="M9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="N9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12776,27 +12776,27 @@
       </c>
       <c r="O9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="P9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="R9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="T9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="U9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12804,27 +12804,27 @@
       </c>
       <c r="V9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="W9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="X9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Y9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12832,27 +12832,27 @@
       </c>
       <c r="AC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12860,27 +12860,27 @@
       </c>
       <c r="AJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AM9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AO9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12888,27 +12888,27 @@
       </c>
       <c r="AQ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AT9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AV9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12916,27 +12916,27 @@
       </c>
       <c r="AX9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BA9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BC9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12944,27 +12944,27 @@
       </c>
       <c r="BE9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BH9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BJ9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="BL9" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BM9" s="51"/>
     </row>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="F12" s="25">
         <f ca="1">TODAY()-7</f>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="G12" s="26">
         <v>5</v>
@@ -13540,7 +13540,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25">
         <f ca="1">TODAY()+5</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="F14" s="25">
         <f ca="1">F12-3</f>
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="G14" s="26">
         <v>10</v>
@@ -14030,7 +14030,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25">
         <f ca="1">F12+20</f>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="55"/>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="F16" s="25">
         <f ca="1">F12+6</f>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="G16" s="26">
         <v>6</v>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="F18" s="25">
         <f ca="1">F12+6</f>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="G18" s="26">
         <v>13</v>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="F19" s="25">
         <f ca="1">F18+2</f>
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="G19" s="26">
         <v>9</v>
@@ -15249,7 +15249,7 @@
       </c>
       <c r="F20" s="25">
         <f ca="1">F19+5</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="G20" s="26">
         <v>11</v>
@@ -15493,7 +15493,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25">
         <f ca="1">F20+2</f>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -15735,7 +15735,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25">
         <f ca="1">F21+1</f>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="G22" s="26">
         <v>24</v>
@@ -16216,7 +16216,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25">
         <f ca="1">F12+15</f>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="G24" s="26">
         <v>4</v>
@@ -16460,7 +16460,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25">
         <f ca="1">F24+3</f>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="G25" s="26">
         <v>14</v>
@@ -16704,7 +16704,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25">
         <f ca="1">F25+15</f>
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="G26" s="26">
         <v>6</v>
@@ -16948,7 +16948,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25">
         <f ca="1">F21+22</f>
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="G27" s="26">
         <v>3</v>
@@ -17192,7 +17192,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25">
         <f ca="1">F16</f>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="G28" s="26">
         <v>19</v>
@@ -17671,7 +17671,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25">
         <f ca="1">F27+3</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="G30" s="26">
         <v>15</v>
@@ -17913,7 +17913,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25">
         <f ca="1">F30+14</f>
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="G31" s="26">
         <v>5</v>
@@ -18157,7 +18157,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25">
         <f ca="1">F31+42</f>
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="G32" s="26">
         <v>1</v>
@@ -19377,6 +19377,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19652,35 +19680,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19699,24 +19719,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>